--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7914.071283196993</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7914.071283196993</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16759.04159612089</v>
+        <v>1014896.635354855</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16759.04159612089</v>
+        <v>1014896.635354855</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112343470.931236</v>
+        <v>44925673.48973913</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10283.35183011424</v>
+        <v>1039947.991107659</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19826.60109704528</v>
+        <v>1952996.345348789</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29369.8503639763</v>
+        <v>2866044.699589921</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39925.50865063328</v>
+        <v>3724235.855954726</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50481.16693729023</v>
+        <v>4582427.012319531</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60131.63823168154</v>
+        <v>5495475.36656066</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69991.33657497486</v>
+        <v>6417526.138689681</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79805.79663742452</v>
+        <v>7330574.492930809</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90316.21664323783</v>
+        <v>8179763.231407716</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100334.2851067533</v>
+        <v>9062434.803031463</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109984.7564011446</v>
+        <v>9975483.157272594</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119635.2276955359</v>
+        <v>10888531.51151373</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129285.6989899271</v>
+        <v>11801579.86575487</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139389.6844082615</v>
+        <v>12680108.29464703</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149876.5833650126</v>
+        <v>13519344.34394471</v>
       </c>
     </row>
   </sheetData>
